--- a/Assignment2/Assignment2.xlsx
+++ b/Assignment2/Assignment2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anish.v\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\END2.0_Assignments\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE6FF7C-F648-47F2-89EF-BC52444F0681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A760956-DDC0-489C-A6C4-E28F1E513EEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F64F268-BF0C-490A-AF6A-6FB8D6EE93B2}"/>
+    <workbookView xWindow="3100" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{4F64F268-BF0C-490A-AF6A-6FB8D6EE93B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,29 +289,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>= dE1/da_o1*da_o1/do1*do1/da_h1 = (a_o1-t1)*a_o1*(1-a_o1)*w5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dE2/da_h2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (a_o2-t2)*a_o2*(1-a_o2)*w7</t>
     </r>
   </si>
   <si>
@@ -762,6 +739,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = E1 + E2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dE2/da_h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (a_o2-t2)*a_o2*(1-a_o2)*w7</t>
     </r>
   </si>
 </sst>
@@ -4538,7 +4538,7 @@
   <dimension ref="A6:AE92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4599,107 +4599,107 @@
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17">
         <v>0.01</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>0.99</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <v>1.5</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -4765,28 +4765,28 @@
         <v>19</v>
       </c>
       <c r="X28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
